--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -220,7 +220,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O31" activeCellId="0" sqref="O31"/>
+      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -247,7 +247,7 @@
       </c>
       <c r="Q1" s="3"/>
       <c r="R1" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -329,7 +329,7 @@
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADDC4B-BBEA-4EE2-8A9C-AE4B26ACD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC906F5-D33E-4AC1-80D7-4596EF2F268B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t>A</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>FP</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,60 +564,60 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>5</v>
       </c>
-      <c r="B3" s="10">
+      <c r="B3" s="9">
         <v>0</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>5</v>
       </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="10">
+      <c r="P3" s="9">
         <v>9</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>0</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -647,6 +650,12 @@
       <c r="O6" s="5"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="H7" s="2"/>
@@ -655,36 +664,56 @@
       <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="9" t="s">
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>11</v>
+      </c>
       <c r="E9" s="3"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="H10" s="2"/>
       <c r="K10" s="2"/>
@@ -847,13 +876,14 @@
       <c r="J32" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="P2:R2"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="K8:M8"/>
+    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADDC4B-BBEA-4EE2-8A9C-AE4B26ACD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC06A91-C87D-49D3-A805-8F406CD41537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lösung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -561,60 +562,60 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10">
-        <v>5</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="9">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -656,32 +657,32 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -845,6 +846,389 @@
         <v>11</v>
       </c>
       <c r="J32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4855C8-B6B6-4008-B2A2-979783016540}">
+  <dimension ref="A1:AMJ32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Captiva\git\QM_PM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64ADDC4B-BBEA-4EE2-8A9C-AE4B26ACD929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B00E3A-A3B0-4FA7-B8C5-56CB69D99B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Lösung" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="12">
   <si>
     <t>A</t>
   </si>
@@ -534,7 +535,7 @@
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -561,60 +562,60 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="F2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="K2" s="9" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="P2" s="9" t="s">
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="P2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="10">
-        <v>5</v>
-      </c>
-      <c r="B3" s="10">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
         <v>0</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="4"/>
-      <c r="F3" s="10">
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="10">
-        <v>5</v>
-      </c>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
+      <c r="K3" s="9">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
       <c r="N3" s="3"/>
       <c r="O3" s="4"/>
-      <c r="P3" s="10">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0</v>
-      </c>
-      <c r="R3" s="10">
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
         <v>0</v>
       </c>
     </row>
@@ -656,32 +657,32 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="K8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L8" s="9"/>
-      <c r="M8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
       <c r="O8" s="5"/>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="E9" s="3"/>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>4</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>7</v>
       </c>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.2">
@@ -845,6 +846,389 @@
         <v>11</v>
       </c>
       <c r="J32" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:M8"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F4855C8-B6B6-4008-B2A2-979783016540}">
+  <dimension ref="A1:AMJ32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1024" width="3.85546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="7">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2">
+        <v>16</v>
+      </c>
+      <c r="R1" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+    </row>
+    <row r="3" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>5</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="9">
+        <v>3</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="9">
+        <v>5</v>
+      </c>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="9">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>0</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>5</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="2">
+        <v>16</v>
+      </c>
+      <c r="R4" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="E7" s="5"/>
+      <c r="F7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:18" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="5"/>
+      <c r="F8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="K8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="O8" s="5"/>
+    </row>
+    <row r="9" spans="1:18" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3"/>
+      <c r="F9" s="9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="9">
+        <v>7</v>
+      </c>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="6">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="6">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" s="6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="6">
+        <v>9</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J17" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="6">
+        <v>16</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>9</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="6">
+        <v>16</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J24" s="6">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="6">
+        <v>11</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="6">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J28" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Tabelle1_2" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="13">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -34,28 +35,31 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
+    <t xml:space="preserve">FAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">FAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEZ</t>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAZ</t>
   </si>
   <si>
     <t xml:space="preserve">SEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP</t>
   </si>
 </sst>
 </file>
@@ -65,11 +69,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -86,6 +91,13 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -101,7 +113,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -110,31 +122,46 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
-      <top style="thick"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
+      <left style="thin"/>
       <right/>
-      <top style="thick"/>
+      <top style="thin"/>
       <bottom/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thick"/>
+      <left style="thin"/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF666666"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF666666"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF666666"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF666666"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -163,40 +190,48 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,18 +244,184 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF99"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666666"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -341,6 +542,13 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -351,20 +559,34 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="2" t="n">
         <v>4</v>
@@ -381,6 +603,13 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
@@ -393,163 +622,164 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="10"/>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="10"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="10"/>
       <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J14" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="10"/>
       <c r="G16" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="8"/>
+        <v>4</v>
+      </c>
+      <c r="J16" s="10"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="D17" s="10"/>
       <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="8"/>
+        <v>5</v>
+      </c>
+      <c r="J17" s="10"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D20" s="10"/>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="J20" s="10"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D21" s="10"/>
       <c r="I21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="J21" s="10"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="D24" s="10"/>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="8"/>
+        <v>12</v>
+      </c>
+      <c r="J24" s="10"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="D25" s="10"/>
       <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="8"/>
+        <v>11</v>
+      </c>
+      <c r="J25" s="10"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="10"/>
       <c r="G28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="J28" s="10"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D29" s="10"/>
       <c r="I29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="J29" s="10"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="D31" s="10"/>
       <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="8"/>
+        <v>9</v>
+      </c>
+      <c r="J31" s="10"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="D32" s="10"/>
       <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="8"/>
+        <v>10</v>
+      </c>
+      <c r="J32" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="K8:M8"/>
   </mergeCells>
@@ -561,4 +791,384 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:R32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="3.83"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="2"/>
+      <c r="P1" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="F2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="P2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="2" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E5" s="7"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="2"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="G13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="I14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J14" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="I17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="10"/>
+      <c r="I21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="G24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10"/>
+      <c r="I25" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="10"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="G28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="I29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="10"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="I32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J32" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="K8:M8"/>
+  </mergeCells>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Standard"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Standard"&amp;12Seite &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -420,8 +420,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M3" activeCellId="0" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -800,8 +800,8 @@
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P11" activeCellId="0" sqref="P11"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="V13" activeCellId="0" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -855,7 +855,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>0</v>

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,35 +169,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,15 +213,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+      <selection pane="topLeft" activeCell="W20" activeCellId="0" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,24 +502,32 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -421,24 +536,32 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -447,24 +570,32 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="n">
+        <v>16</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -473,24 +604,32 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="n">
+        <v>16</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -499,24 +638,32 @@
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -525,24 +672,32 @@
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Tabelle1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -70,6 +70,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -168,35 +169,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -212,15 +213,121 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X10" activeCellId="0" sqref="X10"/>
+      <selection pane="topLeft" activeCell="AK6" activeCellId="0" sqref="AK6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -395,24 +502,32 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="n">
+        <v>8</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="8" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -421,24 +536,32 @@
       <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="8" t="n">
+        <v>5</v>
+      </c>
       <c r="G16" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="8"/>
+      <c r="D17" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="I17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="8" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -447,24 +570,32 @@
       <c r="C20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="n">
+        <v>16</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="8" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="8"/>
+      <c r="D21" s="8" t="n">
+        <v>9</v>
+      </c>
       <c r="I21" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="8" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -473,24 +604,32 @@
       <c r="C24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="8"/>
+      <c r="D24" s="8" t="n">
+        <v>16</v>
+      </c>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J24" s="8"/>
+      <c r="J24" s="8" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="8" t="n">
+        <v>11</v>
+      </c>
       <c r="I25" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="8"/>
+      <c r="J25" s="8" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -499,24 +638,32 @@
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D28" s="8"/>
+      <c r="D28" s="8" t="n">
+        <v>3</v>
+      </c>
       <c r="G28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J28" s="8"/>
+      <c r="J28" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="8"/>
+      <c r="D29" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="I29" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J29" s="8"/>
+      <c r="J29" s="8" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
@@ -525,24 +672,32 @@
       <c r="C31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="8"/>
+      <c r="D31" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="G31" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J31" s="8"/>
+      <c r="J31" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="8" t="n">
+        <v>0</v>
+      </c>
       <c r="I32" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J32" s="8"/>
+      <c r="J32" s="8" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Netzplan_Beispiel_LEK.xlsx
+++ b/Netzplan_Beispiel_LEK.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
   <si>
     <t xml:space="preserve">A</t>
   </si>
@@ -34,28 +34,31 @@
     <t xml:space="preserve">F</t>
   </si>
   <si>
+    <t xml:space="preserve">FAZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID</t>
+  </si>
+  <si>
     <t xml:space="preserve">C</t>
   </si>
   <si>
     <t xml:space="preserve">E</t>
   </si>
   <si>
-    <t xml:space="preserve">FAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEZ</t>
+    <t xml:space="preserve">GP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAZ</t>
   </si>
   <si>
     <t xml:space="preserve">SEZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SAZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FP</t>
   </si>
 </sst>
 </file>
@@ -327,7 +330,7 @@
   <dimension ref="A1:R32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W20" activeCellId="0" sqref="W20"/>
+      <selection pane="topLeft" activeCell="Y9" activeCellId="0" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -448,6 +451,13 @@
       <c r="O6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
@@ -458,20 +468,34 @@
       <c r="O7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="E8" s="7"/>
       <c r="F8" s="4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="O8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="E9" s="5"/>
       <c r="F9" s="2" t="n">
         <v>4</v>
@@ -488,6 +512,13 @@
       <c r="N9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3"/>
       <c r="H10" s="2"/>
@@ -500,211 +531,164 @@
         <v>1</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="8" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D13" s="8"/>
       <c r="G13" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="8" t="n">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J13" s="8"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="8" t="n">
-        <v>8</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D14" s="8"/>
       <c r="I14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="8" t="n">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J14" s="8"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="8" t="n">
-        <v>5</v>
-      </c>
+      <c r="D16" s="8"/>
       <c r="G16" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="8" t="n">
-        <v>9</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="J16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="8" t="n">
-        <v>9</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="I17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J17" s="8" t="n">
-        <v>16</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J17" s="8"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="8" t="n">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D20" s="8"/>
       <c r="G20" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="8" t="n">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="8" t="n">
-        <v>9</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="D21" s="8"/>
       <c r="I21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="8" t="n">
-        <v>5</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J21" s="8"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="8" t="n">
-        <v>16</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D24" s="8"/>
       <c r="G24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="8" t="n">
-        <v>11</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="J24" s="8"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="8" t="n">
         <v>11</v>
       </c>
+      <c r="D25" s="8"/>
       <c r="I25" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J25" s="8" t="n">
-        <v>8</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="J25" s="8"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D28" s="8" t="n">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D28" s="8"/>
       <c r="G28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J28" s="8" t="n">
-        <v>3</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D29" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D29" s="8"/>
       <c r="I29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J29" s="8" t="n">
-        <v>3</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J29" s="8"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D31" s="8"/>
       <c r="G31" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J31" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="J31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="D32" s="8"/>
       <c r="I32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J32" s="8" t="n">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="J32" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="P2:R2"/>
+    <mergeCell ref="A8:C8"/>
     <mergeCell ref="F8:H8"/>
     <mergeCell ref="K8:M8"/>
   </mergeCells>
